--- a/dbInput.xlsx
+++ b/dbInput.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Dropbox\dbSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\dbSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="315">
   <si>
     <t>path</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>Lake._Name</t>
+  </si>
+  <si>
+    <t>Lake.Name</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +1946,8 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3290,7 +3293,7 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="F58" t="s">
         <v>192</v>
